--- a/web/data/e-books/G2/Words.xlsx
+++ b/web/data/e-books/G2/Words.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="1041">
   <si>
     <t>Word</t>
   </si>
@@ -1435,21 +1435,6 @@
   </si>
   <si>
     <t>أنا أستطيع أن أحفر</t>
-  </si>
-  <si>
-    <t>I'm  / I am</t>
-  </si>
-  <si>
-    <t>You're / You are</t>
-  </si>
-  <si>
-    <t>He's / He is</t>
-  </si>
-  <si>
-    <t>She's / She is</t>
-  </si>
-  <si>
-    <t>They're / They are</t>
   </si>
   <si>
     <t>Is Name</t>
@@ -3514,8 +3499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C339"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3545,10 +3530,10 @@
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3556,19 +3541,19 @@
         <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -3582,19 +3567,19 @@
         <v>-1</v>
       </c>
       <c r="C3" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -3608,19 +3593,19 @@
         <v>-1</v>
       </c>
       <c r="C4" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -3634,19 +3619,19 @@
         <v>-1</v>
       </c>
       <c r="C5" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -3660,19 +3645,19 @@
         <v>-1</v>
       </c>
       <c r="C6" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -3686,19 +3671,19 @@
         <v>-1</v>
       </c>
       <c r="C7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -3712,19 +3697,19 @@
         <v>-1</v>
       </c>
       <c r="C8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D8" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E8" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -3738,19 +3723,19 @@
         <v>-1</v>
       </c>
       <c r="C9" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D9" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E9" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F9" t="s">
         <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -3764,19 +3749,19 @@
         <v>-1</v>
       </c>
       <c r="C10" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D10" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E10" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -3790,19 +3775,19 @@
         <v>-1</v>
       </c>
       <c r="C11" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D11" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E11" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F11" t="s">
         <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -3816,19 +3801,19 @@
         <v>-1</v>
       </c>
       <c r="C12" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -3842,19 +3827,19 @@
         <v>-1</v>
       </c>
       <c r="C13" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F13" t="s">
         <v>243</v>
       </c>
       <c r="G13" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -3868,19 +3853,19 @@
         <v>-1</v>
       </c>
       <c r="C14" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F14" t="s">
         <v>244</v>
       </c>
       <c r="G14" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -3894,19 +3879,19 @@
         <v>-1</v>
       </c>
       <c r="C15" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F15" t="s">
         <v>245</v>
       </c>
       <c r="G15" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -3920,19 +3905,19 @@
         <v>-1</v>
       </c>
       <c r="C16" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F16" t="s">
         <v>246</v>
       </c>
       <c r="G16" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -3946,19 +3931,19 @@
         <v>-1</v>
       </c>
       <c r="C17" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F17" t="s">
         <v>247</v>
       </c>
       <c r="G17" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -3969,7 +3954,7 @@
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3977,19 +3962,19 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D19" t="s">
         <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F19" t="s">
         <v>247</v>
       </c>
       <c r="G19" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -4003,19 +3988,19 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D20" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E20" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F20" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="G20" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4023,19 +4008,19 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D21" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E21" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F21" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G21" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -4043,19 +4028,19 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
+        <v>506</v>
+      </c>
+      <c r="D22" t="s">
         <v>511</v>
       </c>
-      <c r="D22" t="s">
-        <v>516</v>
-      </c>
       <c r="E22" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F22" t="s">
         <v>269</v>
       </c>
       <c r="G22" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -4063,19 +4048,19 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D23" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E23" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F23" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="G23" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4083,19 +4068,19 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D24" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E24" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F24" t="s">
         <v>371</v>
       </c>
       <c r="G24" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -4103,19 +4088,19 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D25" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E25" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F25" t="s">
         <v>372</v>
       </c>
       <c r="G25" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -4123,19 +4108,19 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D26" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E26" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F26" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="G26" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -4143,19 +4128,19 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D27" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E27" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F27" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G27" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -4163,19 +4148,19 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D28" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E28" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F28" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="G28" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -4183,19 +4168,19 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D29" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E29" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F29" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="G29" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4203,19 +4188,19 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D30" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E30" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F30" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="G30" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4223,19 +4208,19 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D31" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E31" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F31" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="G31" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -4243,19 +4228,19 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D32" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E32" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F32" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="G32" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -4263,19 +4248,19 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D33" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E33" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F33" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="G33" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -4283,19 +4268,19 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D34" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E34" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F34" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="G34" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4303,19 +4288,19 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D35" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E35" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F35" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="G35" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -4323,19 +4308,19 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D36" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E36" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F36" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="G36" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -4343,19 +4328,19 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D37" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E37" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F37" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="G37" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -4363,19 +4348,19 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D38" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E38" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F38" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="G38" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -4383,19 +4368,19 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D39" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E39" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F39" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G39" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -4403,19 +4388,19 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D40" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E40" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F40" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="G40" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -4423,19 +4408,19 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D41" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="E41" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F41" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="G41" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -4443,19 +4428,19 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D42" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E42" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F42" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="G42" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -4463,19 +4448,19 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D43" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E43" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F43" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="G43" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -4483,19 +4468,19 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D44" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E44" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F44" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="G44" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -4503,19 +4488,19 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D45" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E45" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F45" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G45" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -4523,19 +4508,19 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D46" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="E46" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F46" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="G46" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -4543,19 +4528,19 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D47" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E47" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F47" t="s">
         <v>380</v>
       </c>
       <c r="G47" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -4563,19 +4548,19 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D48" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="E48" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F48" t="s">
         <v>301</v>
       </c>
       <c r="G48" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -4583,19 +4568,19 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D49" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E49" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F49" t="s">
         <v>332</v>
       </c>
       <c r="G49" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -4603,19 +4588,19 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D50" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E50" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F50" t="s">
         <v>331</v>
       </c>
       <c r="G50" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -4623,19 +4608,19 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D51" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E51" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F51" t="s">
         <v>336</v>
       </c>
       <c r="G51" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -4643,19 +4628,19 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D52" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E52" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F52" t="s">
         <v>335</v>
       </c>
       <c r="G52" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -4663,19 +4648,19 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D53" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E53" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F53" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="G53" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -4683,19 +4668,19 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D54" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E54" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F54" t="s">
         <v>412</v>
       </c>
       <c r="G54" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -4703,19 +4688,19 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D55" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E55" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F55" t="s">
         <v>274</v>
       </c>
       <c r="G55" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -4723,19 +4708,19 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D56" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E56" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F56" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="G56" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -4743,19 +4728,19 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D57" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E57" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F57" t="s">
         <v>456</v>
       </c>
       <c r="G57" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -4763,19 +4748,19 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D58" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E58" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F58" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="G58" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -4783,19 +4768,19 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D59" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E59" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F59" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="G59" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -4803,19 +4788,19 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D60" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E60" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F60" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G60" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -4823,19 +4808,19 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D61" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E61" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F61" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G61" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -4843,19 +4828,19 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D62" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E62" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F62" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="G62" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -4863,19 +4848,19 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D63" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E63" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F63" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="G63" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -4883,19 +4868,19 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D64" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="E64" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F64" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="G64" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -4903,19 +4888,19 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D65" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E65" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F65" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="G65" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -4923,19 +4908,19 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D66" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E66" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F66" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="G66" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -4943,19 +4928,19 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D67" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E67" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F67" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="G67" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -4963,19 +4948,19 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D68" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E68" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F68" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="G68" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -4983,19 +4968,19 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D69" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E69" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F69" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="G69" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -5003,19 +4988,19 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D70" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E70" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F70" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="G70" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -5023,19 +5008,19 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D71" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E71" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F71" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="G71" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -5043,19 +5028,19 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D72" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E72" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F72" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="G72" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -5063,19 +5048,19 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D73" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E73" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F73" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G73" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -5083,19 +5068,19 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D74" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E74" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F74" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="G74" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -5103,19 +5088,19 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D75" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E75" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F75" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="G75" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -5123,19 +5108,19 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D76" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E76" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F76" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="G76" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -5143,19 +5128,19 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D77" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="E77" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F77" t="s">
         <v>279</v>
       </c>
       <c r="G77" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -5163,19 +5148,19 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D78" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E78" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F78" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="G78" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -5183,19 +5168,19 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D79" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E79" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F79" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="G79" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -5203,19 +5188,19 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D80" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E80" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F80" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="G80" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -5223,19 +5208,19 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D81" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E81" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F81" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="G81" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -5243,19 +5228,19 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D82" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E82" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F82" t="s">
         <v>387</v>
       </c>
       <c r="G82" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -5263,19 +5248,19 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D83" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E83" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F83" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="G83" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -5283,19 +5268,19 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D84" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="E84" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F84" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="G84" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -5303,19 +5288,19 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D85" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E85" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F85" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="G85" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -5323,19 +5308,19 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D86" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="E86" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F86" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="G86" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -5343,19 +5328,19 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D87" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E87" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F87" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G87" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -5363,19 +5348,19 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D88" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E88" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F88" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="G88" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -5383,19 +5368,19 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D89" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E89" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F89" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="G89" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -5403,19 +5388,19 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D90" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="E90" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F90" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="G90" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -5423,19 +5408,19 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D91" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="E91" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F91" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="G91" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -5443,19 +5428,19 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D92" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E92" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F92" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="G92" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -5463,19 +5448,19 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D93" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E93" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F93" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="G93" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -5483,19 +5468,19 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D94" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E94" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F94" t="s">
         <v>266</v>
       </c>
       <c r="G94" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -5503,19 +5488,19 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D95" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="E95" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F95" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="G95" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -5523,19 +5508,19 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D96" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="E96" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F96" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="G96" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -5543,19 +5528,19 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D97" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="E97" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F97" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="G97" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -5563,19 +5548,19 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D98" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="E98" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F98" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="G98" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -5583,19 +5568,19 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D99" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="E99" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F99" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="G99" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -5603,19 +5588,19 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D100" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E100" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F100" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="G100" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -5623,19 +5608,19 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D101" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E101" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F101" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="G101" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -5643,19 +5628,19 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D102" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="E102" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F102" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="G102" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -5663,19 +5648,19 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D103" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="E103" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F103" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="G103" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -5683,19 +5668,19 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D104" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="E104" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F104" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="G104" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -5703,19 +5688,19 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D105" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="E105" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F105" t="s">
         <v>433</v>
       </c>
       <c r="G105" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -5723,19 +5708,19 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D106" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E106" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F106" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="G106" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -5743,19 +5728,19 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D107" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E107" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F107" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G107" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -5763,19 +5748,19 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D108" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E108" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F108" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="G108" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -5783,19 +5768,19 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D109" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="E109" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F109" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="G109" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -5803,19 +5788,19 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D110" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="E110" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F110" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="G110" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -5823,19 +5808,19 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D111" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E111" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F111" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G111" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -5843,19 +5828,19 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D112" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E112" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F112" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="G112" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -5863,19 +5848,19 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D113" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="E113" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F113" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="G113" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -5883,19 +5868,19 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D114" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="E114" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F114" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="G114" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -5903,19 +5888,19 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D115" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="E115" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F115" t="s">
         <v>423</v>
       </c>
       <c r="G115" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -5923,19 +5908,19 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D116" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="E116" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F116" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="G116" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -5943,19 +5928,19 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D117" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E117" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F117" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="G117" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -5963,19 +5948,19 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D118" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="E118" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F118" t="s">
         <v>433</v>
       </c>
       <c r="G118" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -5983,19 +5968,19 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D119" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E119" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F119" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="G119" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -6003,19 +5988,19 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D120" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E120" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F120" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="G120" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -6023,19 +6008,19 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D121" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="E121" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F121" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="G121" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -6043,19 +6028,19 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D122" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="E122" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F122" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="G122" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -6063,19 +6048,19 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D123" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="E123" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F123" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="G123" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -6083,19 +6068,19 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D124" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E124" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F124" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="G124" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -6103,19 +6088,19 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D125" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E125" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F125" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="G125" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -6123,19 +6108,19 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D126" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="E126" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F126" t="s">
         <v>296</v>
       </c>
       <c r="G126" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -6143,19 +6128,19 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D127" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E127" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F127" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="G127" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -6163,19 +6148,19 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D128" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="E128" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F128" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="G128" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -6183,19 +6168,19 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D129" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E129" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F129" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="G129" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -6203,19 +6188,19 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D130" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E130" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F130" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G130" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -6223,19 +6208,19 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D131" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="E131" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F131" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="G131" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -6243,19 +6228,19 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D132" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="E132" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F132" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="G132" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -6263,19 +6248,19 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D133" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E133" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F133" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="G133" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -6283,19 +6268,19 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D134" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E134" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F134" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="G134" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -6303,19 +6288,19 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D135" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E135" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F135" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="G135" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -6323,19 +6308,19 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D136" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="E136" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F136" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="G136" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -6343,19 +6328,19 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D137" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E137" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F137" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="G137" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -6363,19 +6348,19 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D138" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E138" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F138" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="G138" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -6383,19 +6368,19 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D139" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E139" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F139" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="G139" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -6403,19 +6388,19 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D140" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E140" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F140" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="G140" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -6423,19 +6408,19 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D141" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E141" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F141" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="G141" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -6443,19 +6428,19 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D142" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E142" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F142" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="G142" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -6463,19 +6448,19 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D143" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E143" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F143" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="G143" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -6483,19 +6468,19 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D144" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E144" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F144" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="G144" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -6503,19 +6488,19 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D145" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="E145" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F145" t="s">
         <v>451</v>
       </c>
       <c r="G145" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -6523,19 +6508,19 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D146" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E146" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F146" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="G146" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -6543,19 +6528,19 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D147" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="E147" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F147" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="G147" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -6563,19 +6548,19 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D148" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E148" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F148" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="G148" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -6583,19 +6568,19 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D149" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E149" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F149" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G149" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -6603,19 +6588,19 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D150" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E150" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F150" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="G150" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -6623,19 +6608,19 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D151" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E151" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F151" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="G151" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -6643,19 +6628,19 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D152" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="E152" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F152" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="G152" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -6663,19 +6648,19 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D153" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E153" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F153" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="G153" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -6683,19 +6668,19 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D154" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E154" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F154" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="G154" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -6703,19 +6688,19 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D155" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E155" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F155" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="G155" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -6723,19 +6708,19 @@
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D156" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E156" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F156" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="G156" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -6743,19 +6728,19 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D157" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E157" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F157" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="G157" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -6763,19 +6748,19 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D158" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="E158" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F158" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="G158" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -6783,19 +6768,19 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D159" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="E159" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F159" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="G159" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -6803,19 +6788,19 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D160" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E160" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F160" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="G160" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -6823,19 +6808,19 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D161" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="E161" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F161" t="s">
         <v>395</v>
       </c>
       <c r="G161" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -6843,19 +6828,19 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D162" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E162" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F162" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="G162" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -6863,19 +6848,19 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D163" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E163" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F163" t="s">
         <v>387</v>
       </c>
       <c r="G163" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -6883,19 +6868,19 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D164" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="E164" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F164" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="G164" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -6903,19 +6888,19 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D165" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="E165" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F165" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="G165" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -6923,19 +6908,19 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D166" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="E166" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F166" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="G166" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -6943,19 +6928,19 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D167" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E167" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F167" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="G167" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -6963,19 +6948,19 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D168" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E168" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F168" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="G168" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -6983,19 +6968,19 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D169" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E169" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F169" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="G169" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -7003,19 +6988,19 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D170" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E170" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F170" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="G170" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -7023,19 +7008,19 @@
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D171" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E171" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F171" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="G171" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -7043,19 +7028,19 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D172" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E172" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F172" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G172" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -7063,19 +7048,19 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D173" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="E173" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F173" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="G173" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -7083,19 +7068,19 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D174" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E174" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F174" t="s">
         <v>361</v>
       </c>
       <c r="G174" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -7103,19 +7088,19 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D175" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E175" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F175" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="G175" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -7123,19 +7108,19 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D176" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E176" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F176" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="G176" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -7143,19 +7128,19 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D177" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E177" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F177" t="s">
         <v>439</v>
       </c>
       <c r="G177" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -7163,19 +7148,19 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D178" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="E178" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F178" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="G178" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -7183,19 +7168,19 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D179" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E179" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F179" t="s">
         <v>290</v>
       </c>
       <c r="G179" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -7203,19 +7188,19 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D180" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E180" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F180" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="G180" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -7223,19 +7208,19 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D181" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E181" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F181" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="G181" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -7243,19 +7228,19 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D182" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E182" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F182" t="s">
         <v>366</v>
       </c>
       <c r="G182" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -7263,19 +7248,19 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D183" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="E183" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F183" t="s">
         <v>359</v>
       </c>
       <c r="G183" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -7283,19 +7268,19 @@
         <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D184" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E184" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F184" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="G184" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -7303,19 +7288,19 @@
         <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D185" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E185" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F185" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="G185" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -7323,19 +7308,19 @@
         <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D186" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E186" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F186" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="G186" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -7343,19 +7328,19 @@
         <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D187" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E187" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F187" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="G187" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -7363,19 +7348,19 @@
         <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D188" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E188" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F188" t="s">
         <v>324</v>
       </c>
       <c r="G188" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -7383,19 +7368,19 @@
         <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D189" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="E189" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F189" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="G189" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -7403,19 +7388,19 @@
         <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D190" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="E190" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F190" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="G190" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -7423,19 +7408,19 @@
         <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D191" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="E191" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F191" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="G191" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -7443,19 +7428,19 @@
         <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D192" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E192" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F192" t="s">
         <v>324</v>
       </c>
       <c r="G192" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -7463,19 +7448,19 @@
         <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D193" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E193" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F193" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="G193" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -7483,19 +7468,19 @@
         <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D194" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E194" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F194" t="s">
         <v>249</v>
       </c>
       <c r="G194" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -7503,19 +7488,19 @@
         <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D195" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E195" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F195" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="G195" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -7523,19 +7508,19 @@
         <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D196" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E196" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F196" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="G196" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -7543,19 +7528,19 @@
         <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D197" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="E197" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F197" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="G197" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -7563,19 +7548,19 @@
         <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D198" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E198" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F198" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="G198" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -7583,19 +7568,19 @@
         <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D199" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="E199" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F199" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="G199" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -7603,19 +7588,19 @@
         <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D200" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="E200" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F200" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="G200" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -7623,19 +7608,19 @@
         <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D201" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="E201" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F201" t="s">
         <v>273</v>
       </c>
       <c r="G201" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -7643,19 +7628,19 @@
         <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D202" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="E202" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F202" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="G202" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -7663,19 +7648,19 @@
         <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D203" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="E203" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F203" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="G203" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -7683,19 +7668,19 @@
         <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D204" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E204" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F204" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="G204" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -7703,19 +7688,19 @@
         <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D205" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="E205" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F205" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="G205" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -7723,19 +7708,19 @@
         <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D206" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="E206" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F206" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="G206" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -7743,19 +7728,19 @@
         <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D207" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="E207" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F207" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="G207" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -7763,19 +7748,19 @@
         <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D208" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="E208" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F208" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="G208" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -7783,19 +7768,19 @@
         <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D209" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E209" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F209" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="G209" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -7803,19 +7788,19 @@
         <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D210" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E210" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F210" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="G210" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -7823,19 +7808,19 @@
         <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D211" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="E211" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F211" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="G211" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -7843,19 +7828,19 @@
         <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D212" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="E212" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F212" t="s">
         <v>327</v>
       </c>
       <c r="G212" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -7863,19 +7848,19 @@
         <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D213" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E213" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F213" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="G213" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -7883,19 +7868,19 @@
         <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D214" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="E214" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F214" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="G214" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -7903,19 +7888,19 @@
         <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D215" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E215" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F215" t="s">
         <v>432</v>
       </c>
       <c r="G215" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -7923,19 +7908,19 @@
         <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D216" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E216" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F216" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="G216" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -7943,19 +7928,19 @@
         <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D217" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="E217" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F217" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="G217" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -7963,19 +7948,19 @@
         <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D218" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="E218" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F218" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="G218" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -7983,19 +7968,19 @@
         <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D219" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="E219" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F219" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G219" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -8003,19 +7988,19 @@
         <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D220" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="E220" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F220" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="G220" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -8023,19 +8008,19 @@
         <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D221" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="E221" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F221" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="G221" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -8043,19 +8028,19 @@
         <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D222" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="E222" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F222" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="G222" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -8063,19 +8048,19 @@
         <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D223" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="E223" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F223" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="G223" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -8083,19 +8068,19 @@
         <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D224" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E224" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F224" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="G224" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -8103,19 +8088,19 @@
         <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D225" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E225" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F225" t="s">
         <v>267</v>
       </c>
       <c r="G225" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -8123,19 +8108,19 @@
         <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D226" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="E226" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F226" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="G226" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -8143,19 +8128,19 @@
         <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D227" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E227" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F227" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="G227" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -8163,19 +8148,19 @@
         <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D228" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="E228" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F228" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="G228" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -8183,19 +8168,19 @@
         <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D229" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="E229" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F229" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="G229" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -8203,19 +8188,19 @@
         <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D230" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="E230" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F230" t="s">
         <v>372</v>
       </c>
       <c r="G230" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -8223,19 +8208,19 @@
         <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D231" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="E231" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F231" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="G231" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -8243,19 +8228,19 @@
         <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D232" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="E232" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F232" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="G232" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -8263,19 +8248,19 @@
         <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D233" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E233" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F233" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="G233" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -8283,19 +8268,19 @@
         <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D234" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="E234" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F234" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="G234" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -8303,19 +8288,19 @@
         <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D235" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="E235" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F235" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G235" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -8323,19 +8308,19 @@
         <v>8</v>
       </c>
       <c r="C236" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D236" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="E236" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F236" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="G236" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -8343,19 +8328,19 @@
         <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D237" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="E237" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F237" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="G237" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -8363,19 +8348,19 @@
         <v>8</v>
       </c>
       <c r="C238" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D238" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E238" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F238" t="s">
         <v>25</v>
       </c>
       <c r="G238" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -8383,19 +8368,19 @@
         <v>8</v>
       </c>
       <c r="C239" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D239" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="E239" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F239" t="s">
         <v>291</v>
       </c>
       <c r="G239" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -8403,19 +8388,19 @@
         <v>8</v>
       </c>
       <c r="C240" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D240" t="s">
         <v>65</v>
       </c>
       <c r="E240" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F240" t="s">
         <v>294</v>
       </c>
       <c r="G240" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -8423,19 +8408,19 @@
         <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D241" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="E241" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F241" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="G241" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -8443,19 +8428,19 @@
         <v>8</v>
       </c>
       <c r="C242" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D242" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="E242" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F242" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="G242" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -8463,19 +8448,19 @@
         <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D243" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E243" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F243" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="G243" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -8483,19 +8468,19 @@
         <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D244" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E244" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F244" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="G244" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -8503,19 +8488,19 @@
         <v>8</v>
       </c>
       <c r="C245" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D245" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="E245" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F245" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="G245" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -8523,19 +8508,19 @@
         <v>8</v>
       </c>
       <c r="C246" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D246" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="E246" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F246" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="G246" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -8543,19 +8528,19 @@
         <v>8</v>
       </c>
       <c r="C247" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D247" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="E247" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F247" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="G247" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -8563,19 +8548,19 @@
         <v>8</v>
       </c>
       <c r="C248" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D248" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="E248" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F248" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="G248" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -8583,19 +8568,19 @@
         <v>8</v>
       </c>
       <c r="C249" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D249" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="E249" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F249" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="G249" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -8603,19 +8588,19 @@
         <v>8</v>
       </c>
       <c r="C250" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D250" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="E250" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F250" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="G250" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -8623,19 +8608,19 @@
         <v>8</v>
       </c>
       <c r="C251" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D251" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="E251" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F251" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="G251" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -8643,19 +8628,19 @@
         <v>8</v>
       </c>
       <c r="C252" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D252" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="E252" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F252" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="G252" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -8663,19 +8648,19 @@
         <v>8</v>
       </c>
       <c r="C253" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D253" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="E253" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F253" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="G253" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -8683,19 +8668,19 @@
         <v>8</v>
       </c>
       <c r="C254" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D254" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="E254" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F254" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="G254" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -8703,19 +8688,19 @@
         <v>8</v>
       </c>
       <c r="C255" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D255" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="E255" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F255" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="G255" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -8723,19 +8708,19 @@
         <v>8</v>
       </c>
       <c r="C256" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D256" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="E256" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F256" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="G256" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -8743,19 +8728,19 @@
         <v>8</v>
       </c>
       <c r="C257" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D257" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="E257" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F257" t="s">
         <v>345</v>
       </c>
       <c r="G257" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -8763,19 +8748,19 @@
         <v>8</v>
       </c>
       <c r="C258" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D258" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="E258" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F258" t="s">
         <v>344</v>
       </c>
       <c r="G258" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -8783,19 +8768,19 @@
         <v>8</v>
       </c>
       <c r="C259" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D259" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="E259" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F259" t="s">
         <v>341</v>
       </c>
       <c r="G259" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -8803,19 +8788,19 @@
         <v>8</v>
       </c>
       <c r="C260" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D260" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="E260" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F260" t="s">
         <v>342</v>
       </c>
       <c r="G260" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -8823,19 +8808,19 @@
         <v>8</v>
       </c>
       <c r="C261" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D261" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="E261" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F261" t="s">
         <v>343</v>
       </c>
       <c r="G261" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -8843,19 +8828,19 @@
         <v>8</v>
       </c>
       <c r="C262" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D262" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="E262" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F262" t="s">
         <v>350</v>
       </c>
       <c r="G262" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -8863,19 +8848,19 @@
         <v>8</v>
       </c>
       <c r="C263" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D263" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="E263" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F263" t="s">
         <v>337</v>
       </c>
       <c r="G263" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -8883,19 +8868,19 @@
         <v>8</v>
       </c>
       <c r="C264" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D264" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="E264" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F264" t="s">
         <v>338</v>
       </c>
       <c r="G264" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -8903,19 +8888,19 @@
         <v>8</v>
       </c>
       <c r="C265" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D265" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="E265" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F265" t="s">
         <v>339</v>
       </c>
       <c r="G265" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -8923,19 +8908,19 @@
         <v>8</v>
       </c>
       <c r="C266" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D266" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="E266" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F266" t="s">
         <v>340</v>
       </c>
       <c r="G266" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -8943,19 +8928,19 @@
         <v>8</v>
       </c>
       <c r="C267" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D267" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="E267" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F267" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="G267" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -8963,19 +8948,19 @@
         <v>8</v>
       </c>
       <c r="C268" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D268" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="E268" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F268" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="G268" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -8983,19 +8968,19 @@
         <v>8</v>
       </c>
       <c r="C269" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D269" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="E269" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F269" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="G269" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -9003,19 +8988,19 @@
         <v>8</v>
       </c>
       <c r="C270" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D270" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E270" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F270" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="G270" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -9023,19 +9008,19 @@
         <v>8</v>
       </c>
       <c r="C271" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D271" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="E271" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F271" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="G271" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -9043,19 +9028,19 @@
         <v>8</v>
       </c>
       <c r="C272" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D272" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="E272" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F272" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="G272" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -9063,19 +9048,19 @@
         <v>8</v>
       </c>
       <c r="C273" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D273" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="E273" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F273" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="G273" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -9083,19 +9068,19 @@
         <v>8</v>
       </c>
       <c r="C274" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D274" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="E274" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F274" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="G274" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -9103,19 +9088,19 @@
         <v>8</v>
       </c>
       <c r="C275" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D275" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="E275" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F275" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="G275" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -9123,19 +9108,19 @@
         <v>8</v>
       </c>
       <c r="C276" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D276" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="E276" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F276" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="G276" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -9143,19 +9128,19 @@
         <v>8</v>
       </c>
       <c r="C277" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D277" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E277" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F277" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="G277" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -9163,19 +9148,19 @@
         <v>8</v>
       </c>
       <c r="C278" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D278" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E278" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F278" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="G278" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -9183,19 +9168,19 @@
         <v>8</v>
       </c>
       <c r="C279" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D279" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="E279" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F279" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="G279" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -9203,19 +9188,19 @@
         <v>8</v>
       </c>
       <c r="C280" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D280" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E280" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F280" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="G280" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -9223,19 +9208,19 @@
         <v>8</v>
       </c>
       <c r="C281" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D281" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="E281" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F281" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="G281" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -9243,19 +9228,19 @@
         <v>8</v>
       </c>
       <c r="C282" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D282" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="E282" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F282" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="G282" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -9263,19 +9248,19 @@
         <v>8</v>
       </c>
       <c r="C283" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D283" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E283" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F283" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="G283" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -9283,19 +9268,19 @@
         <v>8</v>
       </c>
       <c r="C284" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D284" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="E284" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F284" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="G284" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
@@ -9303,19 +9288,19 @@
         <v>8</v>
       </c>
       <c r="C285" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D285" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E285" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F285" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="G285" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -9323,19 +9308,19 @@
         <v>8</v>
       </c>
       <c r="C286" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D286" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="E286" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F286" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="G286" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -9343,19 +9328,19 @@
         <v>8</v>
       </c>
       <c r="C287" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D287" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="E287" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F287" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="G287" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -9363,19 +9348,19 @@
         <v>8</v>
       </c>
       <c r="C288" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D288" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="E288" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F288" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="G288" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -9383,19 +9368,19 @@
         <v>8</v>
       </c>
       <c r="C289" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D289" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="E289" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F289" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="G289" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -9403,19 +9388,19 @@
         <v>8</v>
       </c>
       <c r="C290" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D290" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E290" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F290" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="G290" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -9423,19 +9408,19 @@
         <v>8</v>
       </c>
       <c r="C291" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D291" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="E291" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F291" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="G291" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -9443,19 +9428,19 @@
         <v>8</v>
       </c>
       <c r="C292" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D292" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="E292" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F292" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="G292" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -9463,19 +9448,19 @@
         <v>8</v>
       </c>
       <c r="C293" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D293" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="E293" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F293" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="G293" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
@@ -9483,19 +9468,19 @@
         <v>8</v>
       </c>
       <c r="C294" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D294" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="E294" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F294" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="G294" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
@@ -9503,19 +9488,19 @@
         <v>8</v>
       </c>
       <c r="C295" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D295" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E295" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F295" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="G295" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -9523,19 +9508,19 @@
         <v>8</v>
       </c>
       <c r="C296" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D296" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="E296" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F296" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="G296" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -9543,19 +9528,19 @@
         <v>8</v>
       </c>
       <c r="C297" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D297" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="E297" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F297" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="G297" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -9563,19 +9548,19 @@
         <v>8</v>
       </c>
       <c r="C298" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D298" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="E298" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F298" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="G298" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
@@ -9583,19 +9568,19 @@
         <v>8</v>
       </c>
       <c r="C299" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D299" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E299" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F299" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="G299" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -9603,19 +9588,19 @@
         <v>8</v>
       </c>
       <c r="C300" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D300" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="E300" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F300" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="G300" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
@@ -9623,19 +9608,19 @@
         <v>8</v>
       </c>
       <c r="C301" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D301" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E301" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F301" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="G301" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
@@ -9643,19 +9628,19 @@
         <v>8</v>
       </c>
       <c r="C302" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D302" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E302" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F302" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="G302" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
@@ -9663,19 +9648,19 @@
         <v>8</v>
       </c>
       <c r="C303" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D303" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="E303" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F303" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="G303" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
@@ -9683,19 +9668,19 @@
         <v>8</v>
       </c>
       <c r="C304" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D304" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="E304" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F304" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="G304" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -9703,19 +9688,19 @@
         <v>8</v>
       </c>
       <c r="C305" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D305" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="E305" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F305" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="G305" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
@@ -9723,19 +9708,19 @@
         <v>8</v>
       </c>
       <c r="C306" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D306" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="E306" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F306" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="G306" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
@@ -9743,19 +9728,19 @@
         <v>8</v>
       </c>
       <c r="C307" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D307" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="E307" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F307" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="G307" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
@@ -9763,19 +9748,19 @@
         <v>8</v>
       </c>
       <c r="C308" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D308" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="E308" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F308" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="G308" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
@@ -9783,19 +9768,19 @@
         <v>8</v>
       </c>
       <c r="C309" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D309" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="E309" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F309" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="G309" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -9803,19 +9788,19 @@
         <v>8</v>
       </c>
       <c r="C310" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D310" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="E310" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F310" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="G310" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
@@ -9823,19 +9808,19 @@
         <v>8</v>
       </c>
       <c r="C311" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D311" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="E311" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F311" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="G311" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -9843,19 +9828,19 @@
         <v>8</v>
       </c>
       <c r="C312" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D312" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="E312" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F312" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="G312" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
@@ -9863,19 +9848,19 @@
         <v>8</v>
       </c>
       <c r="C313" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D313" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="E313" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F313" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="G313" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
@@ -9883,19 +9868,19 @@
         <v>8</v>
       </c>
       <c r="C314" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D314" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="E314" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F314" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="G314" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
@@ -9903,19 +9888,19 @@
         <v>8</v>
       </c>
       <c r="C315" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D315" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="E315" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F315" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="G315" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -9923,19 +9908,19 @@
         <v>8</v>
       </c>
       <c r="C316" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D316" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="E316" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F316" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="G316" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
@@ -9943,19 +9928,19 @@
         <v>8</v>
       </c>
       <c r="C317" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D317" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E317" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F317" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="G317" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -9963,19 +9948,19 @@
         <v>8</v>
       </c>
       <c r="C318" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D318" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="E318" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F318" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="G318" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -9983,19 +9968,19 @@
         <v>8</v>
       </c>
       <c r="C319" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D319" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E319" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F319" t="s">
         <v>253</v>
       </c>
       <c r="G319" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
@@ -10003,19 +9988,19 @@
         <v>8</v>
       </c>
       <c r="C320" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D320" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="E320" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F320" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="G320" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -10023,19 +10008,19 @@
         <v>8</v>
       </c>
       <c r="C321" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D321" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="E321" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F321" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="G321" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -10043,19 +10028,19 @@
         <v>8</v>
       </c>
       <c r="C322" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D322" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="E322" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F322" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="G322" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
@@ -10063,19 +10048,19 @@
         <v>8</v>
       </c>
       <c r="C323" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D323" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="E323" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F323" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="G323" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -10083,19 +10068,19 @@
         <v>8</v>
       </c>
       <c r="C324" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D324" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="E324" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F324" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="G324" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -10103,19 +10088,19 @@
         <v>8</v>
       </c>
       <c r="C325" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D325" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="E325" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F325" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="G325" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
@@ -10123,19 +10108,19 @@
         <v>8</v>
       </c>
       <c r="C326" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D326" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="E326" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F326" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="G326" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
@@ -10143,19 +10128,19 @@
         <v>8</v>
       </c>
       <c r="C327" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D327" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E327" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F327" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="G327" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
@@ -10163,19 +10148,19 @@
         <v>8</v>
       </c>
       <c r="C328" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D328" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E328" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F328" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="G328" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
@@ -10183,19 +10168,19 @@
         <v>8</v>
       </c>
       <c r="C329" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D329" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="E329" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F329" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="G329" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
@@ -10203,19 +10188,19 @@
         <v>8</v>
       </c>
       <c r="C330" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D330" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="E330" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F330" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="G330" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -10223,19 +10208,19 @@
         <v>8</v>
       </c>
       <c r="C331" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D331" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="E331" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F331" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="G331" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
@@ -10243,19 +10228,19 @@
         <v>8</v>
       </c>
       <c r="C332" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D332" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="E332" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F332" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="G332" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
@@ -10263,19 +10248,19 @@
         <v>8</v>
       </c>
       <c r="C333" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D333" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="E333" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F333" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="G333" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
@@ -10283,19 +10268,19 @@
         <v>8</v>
       </c>
       <c r="C334" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D334" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E334" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F334" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="G334" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
@@ -10303,19 +10288,19 @@
         <v>8</v>
       </c>
       <c r="C335" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D335" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="E335" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F335" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="G335" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
@@ -10323,19 +10308,19 @@
         <v>8</v>
       </c>
       <c r="C336" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D336" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E336" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F336" t="s">
         <v>290</v>
       </c>
       <c r="G336" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -10343,19 +10328,19 @@
         <v>8</v>
       </c>
       <c r="C337" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D337" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="E337" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F337" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="G337" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
@@ -10363,19 +10348,19 @@
         <v>8</v>
       </c>
       <c r="C338" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D338" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="E338" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F338" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="G338" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
@@ -10383,24 +10368,24 @@
         <v>8</v>
       </c>
       <c r="C339" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D339" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="E339" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F339" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="G339" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E340" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -10493,7 +10478,7 @@
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -10507,7 +10492,7 @@
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -10521,7 +10506,7 @@
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -10535,7 +10520,7 @@
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -10549,7 +10534,7 @@
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -10563,7 +10548,7 @@
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -10577,7 +10562,7 @@
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -10591,7 +10576,7 @@
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -10605,7 +10590,7 @@
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
@@ -10619,7 +10604,7 @@
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
@@ -11564,7 +11549,7 @@
     </row>
     <row r="84" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D84" t="s">
         <v>311</v>
@@ -13631,7 +13616,7 @@
         <v>241</v>
       </c>
       <c r="D249" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F249" t="b">
         <v>0</v>
